--- a/林旭诚/成绩接口.xlsx
+++ b/林旭诚/成绩接口.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -138,18 +138,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">         String score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于查询用户按主题分类的成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +225,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -287,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,110 +576,110 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -701,26 +704,35 @@
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="B7:B13"/>
